--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,11; 79,89</t>
+          <t>55,25; 80,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,05; 86,86</t>
+          <t>62,5; 86,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64,24; 81,15</t>
+          <t>65,15; 81,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,69; 86,96</t>
+          <t>72,75; 86,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,97; 85,25</t>
+          <t>70,33; 85,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,41; 84,2</t>
+          <t>74,82; 84,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,74; 79,2</t>
+          <t>62,96; 78,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,06; 78,31</t>
+          <t>60,35; 77,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,08; 76,54</t>
+          <t>64,84; 76,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,71; 81,17</t>
+          <t>65,89; 81,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,47; 84,46</t>
+          <t>71,38; 84,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,99; 81,11</t>
+          <t>70,6; 80,77</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,84; 79,42</t>
+          <t>71,21; 78,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,13; 79,66</t>
+          <t>71,28; 79,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,43; 78,06</t>
+          <t>72,33; 78,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>69,53%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>74,08%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,25; 80,09</t>
+          <t>64,55; 87,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,5; 86,91</t>
+          <t>56,62; 82,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,15; 81,82</t>
+          <t>64,82; 81,34</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>80,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>79,55%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,75; 86,58</t>
+          <t>70,23; 84,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,33; 85,28</t>
+          <t>72,78; 86,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,82; 84,65</t>
+          <t>74,15; 84,34</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,65%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,95%</t>
+          <t>70,81%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 78,89</t>
+          <t>61,36; 78,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,35; 77,82</t>
+          <t>62,25; 79,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,84; 76,73</t>
+          <t>65,08; 76,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,92%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>77,73%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>65,89; 81,54</t>
+          <t>73,86; 90,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,38; 84,73</t>
+          <t>64,45; 81,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,6; 80,77</t>
+          <t>71,88; 83,75</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,62%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75,34%</t>
+          <t>75,93%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,21; 78,83</t>
+          <t>72,94; 83,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,28; 79,82</t>
+          <t>69,78; 78,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,33; 78,23</t>
+          <t>72,56; 79,51</t>
         </is>
       </c>
     </row>
